--- a/data/spring-cloud-shop/shop-seller-client_structure.xlsx
+++ b/data/spring-cloud-shop/shop-seller-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="94">
   <si>
     <t>Class Name</t>
   </si>
@@ -201,39 +201,39 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>sellerStatus</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>sellerStatus</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>sellerName</t>
   </si>
   <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>21</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>7</t>
@@ -1257,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1312,10 +1309,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -1323,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>91</v>
@@ -1334,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>91</v>
@@ -1345,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>91</v>
@@ -1356,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>91</v>
@@ -1367,7 +1364,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>91</v>
@@ -1378,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>91</v>
@@ -1389,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>91</v>
@@ -1400,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>91</v>
@@ -1411,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>91</v>
@@ -1422,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>91</v>
@@ -1433,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>91</v>
@@ -1444,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>91</v>
@@ -1455,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>91</v>
@@ -1466,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>91</v>
@@ -1477,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>91</v>
@@ -1488,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>91</v>
@@ -1496,32 +1493,32 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>44</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>93</v>
@@ -1529,46 +1526,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s" s="0">
         <v>93</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1614,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1664,7 +1628,7 @@
         <v>60</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1678,7 +1642,7 @@
         <v>60</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1692,7 +1656,7 @@
         <v>60</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>60</v>
@@ -1714,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>60</v>
@@ -1728,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>60</v>
@@ -1742,13 +1706,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>60</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
